--- a/update_form.xlsx
+++ b/update_form.xlsx
@@ -2460,7 +2460,7 @@
       </c>
       <c r="K2" s="142" t="inlineStr">
         <is>
-          <t>06/17/2021</t>
+          <t>06/30/2021</t>
         </is>
       </c>
       <c r="L2" s="143" t="n"/>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="K3" s="66" t="inlineStr">
         <is>
-          <t>09:21 AM</t>
+          <t>04:14 PM</t>
         </is>
       </c>
       <c r="L3" s="145" t="n"/>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="K4" s="147" t="inlineStr">
         <is>
-          <t>Joe Ton</t>
+          <t>Marquis Branche</t>
         </is>
       </c>
       <c r="L4" s="145" t="n"/>
@@ -2614,7 +2614,7 @@
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="148" t="inlineStr">
         <is>
-          <t>UPDATE FORM - PIPE TO CAGE</t>
+          <t>CAGE TO PIPE - UPDATE FORM</t>
         </is>
       </c>
       <c r="E5" s="149" t="n"/>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="K6" s="151" t="inlineStr">
         <is>
-          <t>021-000-001</t>
+          <t>021-000-019</t>
         </is>
       </c>
       <c r="L6" s="145" t="n"/>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="K7" s="156" t="inlineStr">
         <is>
-          <t>2.6.7</t>
+          <t>2.6.9</t>
         </is>
       </c>
       <c r="L7" s="157" t="n"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="M10" s="78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="28" t="n"/>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="C25" s="187" t="inlineStr">
         <is>
-          <t>asf</t>
+          <t>Pipe 619 VSE0G6IWBAL-049 DIMM 5 needs turbocats</t>
         </is>
       </c>
       <c r="D25" s="154" t="n"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C28" s="191" t="inlineStr">
         <is>
-          <t>Optional</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D28" s="149" t="n"/>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="C29" s="191" t="inlineStr">
         <is>
-          <t>asdf</t>
+          <t>Pipe 619</t>
         </is>
       </c>
       <c r="D29" s="149" t="n"/>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="C30" s="191" t="inlineStr">
         <is>
-          <t>sadf</t>
+          <t>VSE0G6IWBAL-049</t>
         </is>
       </c>
       <c r="D30" s="149" t="n"/>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="C31" s="191" t="inlineStr">
         <is>
-          <t>asdf</t>
+          <t>ADO bug # 602938</t>
         </is>
       </c>
       <c r="D31" s="149" t="n"/>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="C32" s="191" t="inlineStr">
         <is>
-          <t>Optional</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D32" s="149" t="n"/>
